--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2014.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2014.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>169.8312514348</v>
+        <v>1698312.514348</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3137.1853967038</v>
+        <v>31371853.967038</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>39.1913323303</v>
+        <v>391913.323303</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>114.5162251016</v>
+        <v>1145162.251016</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>413.2478141078</v>
+        <v>4132478.141078</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>11.58331256</v>
+        <v>115833.1256</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>20.0391775172</v>
+        <v>200391.775172</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6524624</v>
+        <v>6524.624</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2228384024</v>
+        <v>292228.384024</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>40.7918730289</v>
+        <v>407918.730289</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>120.277575688</v>
+        <v>1202775.75688</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>580.6801466154</v>
+        <v>5806801.466154</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>97.9341678522</v>
+        <v>979341.678522</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5755960698</v>
+        <v>285755.960698</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>543.158522052</v>
+        <v>5431585.22052</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7593332034</v>
+        <v>507593.332034</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>217.4648017299</v>
+        <v>2174648.017299</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>13.9393146175</v>
+        <v>139393.146175</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>3.1822785626</v>
+        <v>31822.785626</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>29.1001085902</v>
+        <v>291001.085902</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>8577.1789872326</v>
+        <v>85771789.872326</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>249.2941977824</v>
+        <v>2492941.977824</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>48.4595038172</v>
+        <v>484595.038172</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>640.0197926908</v>
+        <v>6400197.926908</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>592.4480870206</v>
+        <v>5924480.870206</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>199.050636069</v>
+        <v>1990506.36069</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>388.5630992063</v>
+        <v>3885630.992063</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>2.8223428683</v>
+        <v>28223.428683</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>47.9233277824</v>
+        <v>479233.277824</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>87.2527080753</v>
+        <v>872527.080753</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>156.2006813912</v>
+        <v>1562006.813912</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
